--- a/report/14.07.2024 report.xlsx
+++ b/report/14.07.2024 report.xlsx
@@ -4,30 +4,30 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="5" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="6" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="8" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="10" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="11" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="12" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="13" sheetId="13" state="hidden" r:id="rId13"/>
     <sheet name="14" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="15" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="16" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="17" sheetId="17" state="hidden" r:id="rId17"/>
-    <sheet name="18" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="18" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="19" sheetId="19" state="hidden" r:id="rId19"/>
     <sheet name="20" sheetId="20" state="hidden" r:id="rId20"/>
-    <sheet name="21" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="21" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -186,7 +186,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3800475" cy="2857500"/>
+    <ext cx="3810000" cy="2143125"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -216,7 +216,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2533650"/>
+    <ext cx="3810000" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -456,7 +456,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2533650"/>
+    <ext cx="3810000" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -486,7 +486,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3800475" cy="2857500"/>
+    <ext cx="2257425" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -516,7 +516,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2857500"/>
+    <ext cx="3810000" cy="2533650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -546,7 +546,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2857500"/>
+    <ext cx="3810000" cy="2143125"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -576,7 +576,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2857500"/>
+    <ext cx="3810000" cy="2533650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -606,7 +606,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2533650"/>
+    <ext cx="3800475" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -636,7 +636,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2143125"/>
+    <ext cx="3810000" cy="2533650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -666,7 +666,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2857500"/>
+    <ext cx="3800475" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -696,7 +696,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2143125"/>
+    <ext cx="3810000" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -726,7 +726,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2257425" cy="2857500"/>
+    <ext cx="3810000" cy="2533650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -756,7 +756,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3810000" cy="2533650"/>
+    <ext cx="3810000" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1475,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,9 +1489,9 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="92.39999999999999" customWidth="1" min="7" max="7"/>
-    <col width="33.6" customWidth="1" min="8" max="8"/>
-    <col width="13.2" customWidth="1" min="9" max="9"/>
+    <col width="73.2" customWidth="1" min="7" max="7"/>
+    <col width="32.4" customWidth="1" min="8" max="8"/>
+    <col width="32.4" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -1551,15 +1551,15 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>189 900</t>
+          <t>127 000</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45484</v>
+        <v>45481</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Imt5cWlyaGRqb21vcS1PVE9NT1RPUEwifQ.hIxyhzvzgTGMc9YGvl3ZJScQum6iJcYXbeKoNbWApRk/image;s=644x461</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1569,27 +1569,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3-ecoboost-280km-automat-skora-kamera-nawi-alu-fv23-ID6G6Sq9.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2 264 cm3 • 280 KM • 2.3 EcoBoost 280KM Automat Skóra Kamera Nawi Alu FV23%</t>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Toruń (Kujawsko-pomorskie)</t>
+          <t>85 324 km</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>30 096 km</t>
+          <t>Boguchwała (Podkarpackie)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>189 900</t>
+          <t>127 000</t>
         </is>
       </c>
     </row>
@@ -1597,45 +1597,137 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>189 900</t>
+          <t>127 000</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45487</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Imt5cWlyaGRqb21vcS1PVE9NT1RPUEwifQ.hIxyhzvzgTGMc9YGvl3ZJScQum6iJcYXbeKoNbWApRk/image;s=644x461</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3-ecoboost-280km-automat-skora-kamera-nawi-alu-fv23-ID6G6Sq9.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 264 cm3 • 280 KM • 2.3 EcoBoost 280KM Automat Skóra Kamera Nawi Alu FV23%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Toruń (Kujawsko-pomorskie)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30 096 km</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>189 900</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>127 000</t>
         </is>
       </c>
     </row>
@@ -1663,15 +1755,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
     <col width="14.4" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="54" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="79.2" customWidth="1" min="7" max="7"/>
-    <col width="28.8" customWidth="1" min="8" max="8"/>
-    <col width="28.8" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
+    <col width="74.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1730,7 +1822,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
@@ -1738,37 +1830,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>155 000</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1868,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>153 500</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -1784,37 +1876,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>153 500</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1914,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>153 500</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
@@ -1830,37 +1922,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>153 500</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1960,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>148 500</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
@@ -1876,37 +1968,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>148 500</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -1914,7 +2006,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
@@ -1922,37 +2014,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -1960,7 +2052,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
@@ -1968,37 +2060,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2098,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>72 950</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
@@ -2014,37 +2106,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ford Explorer</t>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Budzyń (Wielkopolskie)</t>
+          <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>72 800 km</t>
+          <t>65 597 km</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>145 000</t>
+          <t>72 950</t>
         </is>
       </c>
     </row>
@@ -2058,415 +2150,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="42" customWidth="1" min="7" max="7"/>
-    <col width="33.6" customWidth="1" min="8" max="8"/>
-    <col width="33.6" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45487</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sękocin Nowy (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>91 886 km</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>76 500</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -2830,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3101,7 +2784,779 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="67.2" customWidth="1" min="7" max="7"/>
+    <col width="28.8" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45487</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="28.8" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -3511,7 +3966,324 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>188 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>55 500 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nowy Sącz (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>188 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>55 500 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nowy Sącz (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>55 500 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nowy Sącz (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>55 500 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nowy Sącz (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>55 500 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Nowy Sącz (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00D3D3D3"/>
@@ -3725,594 +4497,6 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>199 999</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
-    <col width="28.8" customWidth="1" min="8" max="8"/>
-    <col width="28.8" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>5 700 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Zduńska Wola (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5 700 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Zduńska Wola (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5 700 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Zduńska Wola (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>5 700 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Zduńska Wola (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5 700 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Zduńska Wola (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Zduńska Wola (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5 700 km</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>156 900</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="93.59999999999999" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="27.6" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>73 000</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>75 000 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Chylice (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>73 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>73 000</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>75 000 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Chylice (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>73 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>73 000</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>75 000 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Chylice (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>73 000</t>
         </is>
       </c>
     </row>
@@ -4345,9 +4529,9 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="66" customWidth="1" min="7" max="7"/>
+    <col width="93.59999999999999" customWidth="1" min="7" max="7"/>
     <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
     <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -4407,7 +4591,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>64 000</t>
+          <t>73 000</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
@@ -4415,7 +4599,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4425,27 +4609,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
+          <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>71 185 km</t>
+          <t>75 000 km</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Katowice (Śląskie)</t>
+          <t>Chylice (Mazowieckie)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>64 000</t>
+          <t>73 000</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4637,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>64 000</t>
+          <t>73 000</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -4461,7 +4645,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4471,27 +4655,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
+          <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>71 185 km</t>
+          <t>75 000 km</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Katowice (Śląskie)</t>
+          <t>Chylice (Mazowieckie)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>64 000</t>
+          <t>73 000</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4683,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>64 000</t>
+          <t>73 000</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
@@ -4507,7 +4691,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4517,27 +4701,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
+          <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>71 185 km</t>
+          <t>75 000 km</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Katowice (Śląskie)</t>
+          <t>Chylice (Mazowieckie)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>64 000</t>
+          <t>73 000</t>
         </is>
       </c>
     </row>
@@ -4551,6 +4735,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="61.2" customWidth="1" min="7" max="7"/>
+    <col width="27.6" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45487</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="66" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>71 185 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Katowice (Śląskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>71 185 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Katowice (Śląskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>71 185 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Katowice (Śląskie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00D3D3D3"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="27.6" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 956 cm3 • 400 KM • St</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>75 033 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Siedlce (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 956 cm3 • 400 KM • St</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>75 033 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Siedlce (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 956 cm3 • 400 KM • St</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>75 033 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Siedlce (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45487</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 956 cm3 • 400 KM • St</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Siedlce (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>75 033 km</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="81.59999999999999" customWidth="1" min="7" max="7"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45487</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="92.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="33.6" customWidth="1" min="8" max="8"/>
+    <col width="13.2" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Imt5cWlyaGRqb21vcS1PVE9NT1RPUEwifQ.hIxyhzvzgTGMc9YGvl3ZJScQum6iJcYXbeKoNbWApRk/image;s=644x461</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3-ecoboost-280km-automat-skora-kamera-nawi-alu-fv23-ID6G6Sq9.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 264 cm3 • 280 KM • 2.3 EcoBoost 280KM Automat Skóra Kamera Nawi Alu FV23%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Toruń (Kujawsko-pomorskie)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30 096 km</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45487</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Imt5cWlyaGRqb21vcS1PVE9NT1RPUEwifQ.hIxyhzvzgTGMc9YGvl3ZJScQum6iJcYXbeKoNbWApRk/image;s=644x461</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3-ecoboost-280km-automat-skora-kamera-nawi-alu-fv23-ID6G6Sq9.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 264 cm3 • 280 KM • 2.3 EcoBoost 280KM Automat Skóra Kamera Nawi Alu FV23%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Toruń (Kujawsko-pomorskie)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30 096 km</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="79.2" customWidth="1" min="7" max="7"/>
+    <col width="28.8" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>148 500</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>148 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45487</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -4960,687 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>188 000</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>55 500 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nowy Sącz (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>188 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>55 500 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Nowy Sącz (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>55 500 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Nowy Sącz (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>55 500 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Nowy Sącz (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>55 500 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Nowy Sącz (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>179 000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="22.8" customWidth="1" min="8" max="8"/>
-    <col width="22.8" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>76 000 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Mońki (Podlaskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>76 000 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Mońki (Podlaskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>76 000 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Mońki (Podlaskie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>76 000 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Mońki (Podlaskie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>76 000 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Mońki (Podlaskie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mońki (Podlaskie)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>76 000 km</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>196 800</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5655,15 +6925,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
     <col width="14.4" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="67.2" customWidth="1" min="7" max="7"/>
-    <col width="28.8" customWidth="1" min="8" max="8"/>
-    <col width="28.8" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="7" max="7"/>
+    <col width="33.6" customWidth="1" min="8" max="8"/>
+    <col width="33.6" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5722,7 +6992,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
@@ -5730,7 +7000,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5740,27 +7010,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -5768,7 +7038,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
@@ -5776,7 +7046,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5786,27 +7056,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -5814,7 +7084,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
@@ -5822,7 +7092,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -5832,27 +7102,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -5860,7 +7130,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
@@ -5868,7 +7138,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5878,27 +7148,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -5906,7 +7176,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
@@ -5914,7 +7184,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5924,27 +7194,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -5952,7 +7222,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
@@ -5960,7 +7230,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -5970,27 +7240,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -5998,7 +7268,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
@@ -6006,7 +7276,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6016,27 +7286,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Łomianki (Mazowieckie)</t>
+          <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>62 000 km</t>
+          <t>91 886 km</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>129 000</t>
+          <t>76 500</t>
         </is>
       </c>
     </row>
@@ -6049,7 +7319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -6413,13 +7683,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6433,9 +7703,9 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="73.2" customWidth="1" min="7" max="7"/>
-    <col width="32.4" customWidth="1" min="8" max="8"/>
-    <col width="32.4" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="22.8" customWidth="1" min="8" max="8"/>
+    <col width="22.8" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -6495,15 +7765,15 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>127 000</t>
+          <t>196 800</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45481</v>
+        <v>45467</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6513,27 +7783,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+          <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>85 324 km</t>
+          <t>76 000 km</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Boguchwała (Podkarpackie)</t>
+          <t>Mońki (Podlaskie)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>127 000</t>
+          <t>196 800</t>
         </is>
       </c>
     </row>
@@ -6541,15 +7811,15 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>127 000</t>
+          <t>196 800</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45482</v>
+        <v>45470</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6559,27 +7829,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+          <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>85 324 km</t>
+          <t>76 000 km</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Boguchwała (Podkarpackie)</t>
+          <t>Mońki (Podlaskie)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>127 000</t>
+          <t>196 800</t>
         </is>
       </c>
     </row>
@@ -6587,15 +7857,15 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>127 000</t>
+          <t>196 800</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45484</v>
+        <v>45473</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6605,27 +7875,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+          <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Boguchwała (Podkarpackie)</t>
+          <t>76 000 km</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>85 324 km</t>
+          <t>Mońki (Podlaskie)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>127 000</t>
+          <t>196 800</t>
         </is>
       </c>
     </row>
@@ -6633,278 +7903,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>127 000</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45487</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Boguchwała (Podkarpackie)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>85 324 km</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>127 000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="54" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="74.39999999999999" customWidth="1" min="7" max="7"/>
-    <col width="26.4" customWidth="1" min="8" max="8"/>
-    <col width="26.4" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>65 597 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Węgrów (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>65 597 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Węgrów (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>65 597 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Węgrów (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>72 950</t>
+          <t>196 800</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
@@ -6912,37 +7911,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
+          <t>Ford Explorer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
+          <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>65 597 km</t>
+          <t>76 000 km</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Węgrów (Mazowieckie)</t>
+          <t>Mońki (Podlaskie)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>72 950</t>
+          <t>196 800</t>
         </is>
       </c>
     </row>
@@ -6950,7 +7949,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>72 950</t>
+          <t>196 800</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
@@ -6958,37 +7957,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
+          <t>Ford Explorer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
+          <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>65 597 km</t>
+          <t>76 000 km</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Węgrów (Mazowieckie)</t>
+          <t>Mońki (Podlaskie)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>72 950</t>
+          <t>196 800</t>
         </is>
       </c>
     </row>
@@ -6996,7 +7995,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>72 950</t>
+          <t>196 800</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
@@ -7004,1036 +8003,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
+          <t>Ford Explorer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
+          <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Węgrów (Mazowieckie)</t>
+          <t>Mońki (Podlaskie)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>65 597 km</t>
+          <t>76 000 km</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>72 950</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45487</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Węgrów (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>65 597 km</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>72 950</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00D3D3D3"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="27.6" customWidth="1" min="8" max="8"/>
-    <col width="27.6" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 956 cm3 • 400 KM • St</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>75 033 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Siedlce (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 956 cm3 • 400 KM • St</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>75 033 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Siedlce (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 956 cm3 • 400 KM • St</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>75 033 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Siedlce (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45487</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 956 cm3 • 400 KM • St</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Siedlce (Mazowieckie)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>75 033 km</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>213 900</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="61.2" customWidth="1" min="7" max="7"/>
-    <col width="27.6" customWidth="1" min="8" max="8"/>
-    <col width="27.6" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>31 600 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Świebodzin (Lubuskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>31 600 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Świebodzin (Lubuskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Świebodzin (Lubuskie)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>31 600 km</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45487</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Świebodzin (Lubuskie)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>31 600 km</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="81.59999999999999" customWidth="1" min="7" max="7"/>
-    <col width="26.4" customWidth="1" min="8" max="8"/>
-    <col width="26.4" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>218 000</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>218 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>218 000</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>218 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>218 000</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>218 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45484</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>215 000</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45487</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Kraków (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>45 000 km</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>215 000</t>
+          <t>196 800</t>
         </is>
       </c>
     </row>
